--- a/ESM-1v data/41592_2018_138_MOESM3_ESM.xlsx
+++ b/ESM-1v data/41592_2018_138_MOESM3_ESM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsn7706\Desktop\Marks Supp Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm85\OneDrive\Document\work\D_PLM\ESM-1v data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51848F5A-C91B-48E7-A171-4F12E3730B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19035" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="3" r:id="rId1"/>
@@ -765,8 +766,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -793,6 +794,34 @@
     <font>
       <sz val="36"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -885,11 +914,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1227,10 +1259,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1245,109 +1277,97 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>243</v>
       </c>
@@ -1358,11 +1378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1418,38 +1438,38 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>26040002</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1596,41 +1616,41 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>23041932</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1967,111 +1987,111 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>24862281</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="L17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="L17" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>23509263</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="K18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="K18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>23035249</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="K19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2145,41 +2165,41 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <v>28585537</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K22" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" t="s">
-        <v>152</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="K22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2364,41 +2384,41 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <v>28686159</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K28" t="s">
-        <v>152</v>
-      </c>
-      <c r="L28" t="s">
-        <v>152</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="K28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2513,73 +2533,73 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>29785012</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K32" t="s">
-        <v>152</v>
-      </c>
-      <c r="L32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="K32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>29785012</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K33" t="s">
-        <v>152</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="K33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>152</v>
       </c>
     </row>

--- a/ESM-1v data/41592_2018_138_MOESM3_ESM.xlsx
+++ b/ESM-1v data/41592_2018_138_MOESM3_ESM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm85\OneDrive\Document\work\D_PLM\ESM-1v data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51848F5A-C91B-48E7-A171-4F12E3730B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C9441F-A1C9-40F8-A912-AA35EC68A8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="Legend" sheetId="3" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="249">
   <si>
     <t xml:space="preserve">β-glucosidase </t>
   </si>
@@ -761,6 +772,18 @@
   </si>
   <si>
     <t xml:space="preserve">Names of experiments shown in figure and improvement statistics </t>
+  </si>
+  <si>
+    <t>multiple variants+one ligand binding score, &lt;1 decrease, =1 wild type, &gt;1 increase</t>
+  </si>
+  <si>
+    <t>GTPases, 2 forms, GTP form binding Raf, GDP form not binding, unregulated score &gt;0 improv binding, &lt;0 impairs binding</t>
+  </si>
+  <si>
+    <t>ubiquitin mutant activated by E1, log10(mt/wt), &gt;0 mutant is activated more efficiently, &lt;0 less efficiently, =0 wt</t>
+  </si>
+  <si>
+    <t>multiple variant+one ligand, Defined Delta E, =0 WT, &lt;0 impairs binding, &gt;0 enhance binding or stability</t>
   </si>
 </sst>
 </file>
@@ -1379,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1393,11 +1416,12 @@
     <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
     <col min="9" max="9" width="29.625" customWidth="1"/>
     <col min="10" max="10" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -1438,7 +1462,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1497,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1532,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1570,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +1640,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1653,8 +1677,11 @@
       <c r="M7" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1692,7 +1719,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1757,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1792,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1803,7 +1830,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +1868,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1876,7 +1903,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1911,7 +1938,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1976,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1987,7 +2014,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2024,8 +2051,11 @@
       <c r="L17" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -2060,7 +2090,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -2094,8 +2124,11 @@
       <c r="L19" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2130,7 +2163,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>103</v>
       </c>
@@ -2203,7 +2236,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -2238,7 +2271,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2273,7 +2306,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -2308,7 +2341,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2346,7 +2379,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2384,7 +2417,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>91</v>
       </c>
@@ -2421,8 +2454,11 @@
       <c r="M28" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2463,7 +2499,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +2534,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -2533,7 +2569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>114</v>
       </c>
